--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BB787A-E710-4B68-814F-03989DBF4CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C97DE0A-5DD5-4B17-8451-D55943F4E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Day 1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Column3</t>
+  </si>
+  <si>
+    <t>kalyani</t>
+  </si>
+  <si>
+    <t>pranjali</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,6 +453,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C97DE0A-5DD5-4B17-8451-D55943F4E3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC671E0E-C76F-4E24-89C7-4D993AFDE4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Day 1</t>
   </si>
@@ -389,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +454,12 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
